--- a/biology/Botanique/Pierre_Duret_de_la_Plane/Pierre_Duret_de_la_Plane.xlsx
+++ b/biology/Botanique/Pierre_Duret_de_la_Plane/Pierre_Duret_de_la_Plane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Duret de la Plane (1728-1811 à Eysines) est un agronome et physiocrate français. Il reçut en héritage à la mort de son père, en 1762, le domaine de la Plane et le château Lescombes à Eysines. Il s'est distingué par son engagement concret local dans la généralisation de la culture de la pomme de terre à une époque où les famines sévissaient en France[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Duret de la Plane (1728-1811 à Eysines) est un agronome et physiocrate français. Il reçut en héritage à la mort de son père, en 1762, le domaine de la Plane et le château Lescombes à Eysines. Il s'est distingué par son engagement concret local dans la généralisation de la culture de la pomme de terre à une époque où les famines sévissaient en France.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Sa vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Pierre Duret fait partie d'une famille de négociants protestants bordelais aisés[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pierre Duret fait partie d'une famille de négociants protestants bordelais aisés.
 La famille Duret, dont la filiation remonte à Benjamin Duret, bourgeois de Bordeaux et négociant, acquiert la maison noble de la Plane en 1724.
 C'est le fils d'Abraham Duret, négociant et aide-major des troupes bourgeoises de la Ville (mort en 1748 à 50 ans), sieur de la Plane, et de Catherine Vanderhagen (décédée à 70 ans) ; Il a eu un frère Max.
 Le 2 mai 1755, premier mariage de Pierre Duret, bourgeois et négociant (fils de feu Louis-Abraham, aussi bourgeois et négociant, et de Cath. Vanderhagen), avec Anne Borel, fille de Daniel, bourgeois et négociant.
@@ -546,12 +560,14 @@
           <t>Son rôle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1771, Parmentier, reprenant les idées de François Mustel avait remporté le prix organisé par l'Académie des sciences, belles-lettres et arts de Besançon et de Franche-Comté sur le thème : « Quel végétal pourrait remplacer les céréales panifiables en cas de disette ? » : on peut fabriquer du pain de pomme de terre en mélangeant le légume avec de la farine de blé[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1771, Parmentier, reprenant les idées de François Mustel avait remporté le prix organisé par l'Académie des sciences, belles-lettres et arts de Besançon et de Franche-Comté sur le thème : « Quel végétal pourrait remplacer les céréales panifiables en cas de disette ? » : on peut fabriquer du pain de pomme de terre en mélangeant le légume avec de la farine de blé.
 À titre expérimental Pierre Duret introduit sur sa métairie de Langlet la culture de la pomme de terre et en 
-1794, il fait installer une meule sur la margelle du puits du pigeonnier monumental de Lescombes, actionnée par un cheval[4]. Avec la farine ainsi produite, mélangée à de la pomme de terre, Duret fait du pain : « J’y ferai mêler un quart de patates sur trois quarts de farine, ce qui produit un très bon pain et qui se conserve très frais ».
-Sur sa propriété, Duret a également introduit artichauts et asperges cultivés par son maître-valet Panchille[5].
+1794, il fait installer une meule sur la margelle du puits du pigeonnier monumental de Lescombes, actionnée par un cheval. Avec la farine ainsi produite, mélangée à de la pomme de terre, Duret fait du pain : « J’y ferai mêler un quart de patates sur trois quarts de farine, ce qui produit un très bon pain et qui se conserve très frais ».
+Sur sa propriété, Duret a également introduit artichauts et asperges cultivés par son maître-valet Panchille.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Engagement politique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 10 septembre 1789, Pierre Duret écrit dans son livre de raison : « les Eysinais m'ont fait l'honneur de me nommer à la pluralité des voix, président de leur conseil municipal ». Il propose une pièce du château de la Plane pour tenir les réunions du Conseil et distribuer des vivres aux indigents.
 </t>
